--- a/功能指数表.xlsx
+++ b/功能指数表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,15 +28,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>详细描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统用户管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">基于用户的权限、
+基于角色的权限、
+菜单权限、
+操作权限（按钮权限）、
+接口权限、
+数据权限
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录、密码修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持使用ElasticSearch记录日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过数据库直接生成实体层、业务逻辑层、视图层代码，
+无需编码即可实现CURD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多数据库支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用基于EF的仓储模式，支持各大主流关系型数据库（SQLServer、MySQL、Oracle、PostgreSQL）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持系统自带缓存和Redis缓存、封装操作接口、简单易用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式Session支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁用自带Session，使用自定义Session，一键开启分布式Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库操作封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用基于EF的仓储模式、封装常用的CURD，支持单库事物和分布式事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面响应式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Bootstrap，支持响应式布局，移动端能够轻松访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它各种帮助类库及插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录、密码修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -44,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +159,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,21 +198,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -429,16 +579,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection sqref="A1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -447,98 +597,155 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
-        <v>2</v>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>2</v>
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
